--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1662822.554590498</v>
+        <v>-1665542.452365714</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>306.7272701900004</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>140.3157839734243</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>265.9616046405137</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>67.65501917415759</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906496</v>
+        <v>96.65565115906503</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833728</v>
+        <v>33.85559031833751</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041456</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>188.9355024974624</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>93.30200131628662</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>304.9454777841415</v>
+        <v>205.1659732514095</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>132.7765921693037</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>217.924148332311</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5250233818693</v>
+        <v>244.3064021238568</v>
       </c>
       <c r="H8" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>371.7128404118524</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>126.1605539371079</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>220.7052287134384</v>
@@ -1348,16 +1348,16 @@
         <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>205.4126506631179</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>113.642703083319</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>224.3745275802544</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>101.5730368512059</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>126.464366564012</v>
       </c>
     </row>
     <row r="17">
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>141.9273329298508</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>96.78074638267718</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>108.5813113004299</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,10 +2533,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>207.0967504439648</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>27.31547498186427</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2953,22 +2953,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002296</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3664,7 +3664,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>532.7801761623282</v>
+        <v>1141.573802497284</v>
       </c>
       <c r="C2" t="n">
-        <v>532.7801761623282</v>
+        <v>772.6112855568722</v>
       </c>
       <c r="D2" t="n">
-        <v>532.7801761623282</v>
+        <v>772.6112855568722</v>
       </c>
       <c r="E2" t="n">
-        <v>146.9919235640839</v>
+        <v>772.6112855568722</v>
       </c>
       <c r="F2" t="n">
-        <v>146.9919235640839</v>
+        <v>361.6253807672646</v>
       </c>
       <c r="G2" t="n">
-        <v>146.9919235640839</v>
+        <v>361.6253807672646</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640839</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870233</v>
+        <v>233.2861766793447</v>
       </c>
       <c r="K2" t="n">
-        <v>287.6947354520187</v>
+        <v>395.0811887443385</v>
       </c>
       <c r="L2" t="n">
-        <v>525.3175166702108</v>
+        <v>1036.104398364233</v>
       </c>
       <c r="M2" t="n">
-        <v>1161.109707842993</v>
+        <v>1332.174964921833</v>
       </c>
       <c r="N2" t="n">
-        <v>1802.132917462887</v>
+        <v>1973.198174541727</v>
       </c>
       <c r="O2" t="n">
-        <v>2077.249136779522</v>
+        <v>2248.31439385836</v>
       </c>
       <c r="P2" t="n">
-        <v>2277.553464068625</v>
+        <v>2448.618721147462</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140986</v>
+        <v>2550.866182466516</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
@@ -4361,19 +4361,19 @@
         <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>1982.600918459332</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="V2" t="n">
-        <v>1713.952832963864</v>
+        <v>1905.178892734175</v>
       </c>
       <c r="W2" t="n">
-        <v>1361.18417769375</v>
+        <v>1905.178892734175</v>
       </c>
       <c r="X2" t="n">
-        <v>987.7184194326697</v>
+        <v>1531.713134473096</v>
       </c>
       <c r="Y2" t="n">
-        <v>919.3800162264499</v>
+        <v>1141.573802497284</v>
       </c>
     </row>
     <row r="3">
@@ -4383,64 +4383,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093631</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282361</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669849</v>
+        <v>626.5027693669851</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615294</v>
+        <v>467.2653143615296</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884144</v>
+        <v>320.7307563884148</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686806</v>
+        <v>183.6293921686809</v>
       </c>
       <c r="H3" t="n">
-        <v>85.9974213009382</v>
+        <v>85.99742130093844</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995069</v>
+        <v>201.9455071369548</v>
       </c>
       <c r="K3" t="n">
-        <v>460.3590590626825</v>
+        <v>585.1891840496857</v>
       </c>
       <c r="L3" t="n">
-        <v>669.9499323155136</v>
+        <v>794.7800573025152</v>
       </c>
       <c r="M3" t="n">
-        <v>1304.992176928754</v>
+        <v>1304.992176928761</v>
       </c>
       <c r="N3" t="n">
-        <v>1590.326047362088</v>
+        <v>1590.326047362092</v>
       </c>
       <c r="O3" t="n">
-        <v>1829.130999113547</v>
+        <v>1829.130999113549</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020794</v>
+        <v>2316.738101020796</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128891</v>
+        <v>2251.223226128892</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259862</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
         <v>1787.95470102812</v>
@@ -4452,7 +4452,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329431</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="4">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>368.6491318331198</v>
+        <v>220.7360382507266</v>
       </c>
       <c r="C4" t="n">
-        <v>199.7129489052128</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="D4" t="n">
-        <v>199.7129489052128</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E4" t="n">
         <v>51.79985532281972</v>
@@ -4486,52 +4486,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018415</v>
+        <v>54.03452733018376</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159875</v>
+        <v>187.5436166159864</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341317</v>
+        <v>413.9157199341299</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666723</v>
+        <v>662.9824862666695</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092733</v>
+        <v>911.5616180092698</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357428</v>
+        <v>1125.148384357424</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993472</v>
+        <v>1284.388078993468</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="R4" t="n">
-        <v>1193.542248702568</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="S4" t="n">
-        <v>1193.542248702568</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="T4" t="n">
-        <v>969.1310894780056</v>
+        <v>1086.791150136556</v>
       </c>
       <c r="U4" t="n">
-        <v>778.2871475613769</v>
+        <v>797.6545231286577</v>
       </c>
       <c r="V4" t="n">
-        <v>778.2871475613769</v>
+        <v>542.9700349227709</v>
       </c>
       <c r="W4" t="n">
-        <v>778.2871475613769</v>
+        <v>542.9700349227709</v>
       </c>
       <c r="X4" t="n">
-        <v>550.2975966633595</v>
+        <v>314.9804840247535</v>
       </c>
       <c r="Y4" t="n">
-        <v>550.2975966633595</v>
+        <v>220.7360382507266</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1519.561383463179</v>
+        <v>998.2603512320129</v>
       </c>
       <c r="C5" t="n">
-        <v>1519.561383463179</v>
+        <v>998.2603512320129</v>
       </c>
       <c r="D5" t="n">
-        <v>1161.295684856429</v>
+        <v>639.9946526252625</v>
       </c>
       <c r="E5" t="n">
-        <v>775.5074322581843</v>
+        <v>639.9946526252625</v>
       </c>
       <c r="F5" t="n">
-        <v>467.4816971226878</v>
+        <v>432.7562958056569</v>
       </c>
       <c r="G5" t="n">
-        <v>51.79985532281972</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104782</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135511</v>
+        <v>447.8319447135509</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477385</v>
+        <v>804.613300747739</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P5" t="n">
         <v>2384.705143645557</v>
@@ -4595,22 +4595,22 @@
         <v>2589.992766140986</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.992766140986</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="U5" t="n">
-        <v>2589.992766140986</v>
+        <v>2127.76817854206</v>
       </c>
       <c r="V5" t="n">
-        <v>2258.929878797415</v>
+        <v>2127.76817854206</v>
       </c>
       <c r="W5" t="n">
-        <v>1906.161223527301</v>
+        <v>1774.999523271946</v>
       </c>
       <c r="X5" t="n">
-        <v>1906.161223527301</v>
+        <v>1774.999523271946</v>
       </c>
       <c r="Y5" t="n">
-        <v>1906.161223527301</v>
+        <v>1384.860191296135</v>
       </c>
     </row>
     <row r="6">
@@ -4647,10 +4647,10 @@
         <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>563.7673318682815</v>
+        <v>301.9467472258287</v>
       </c>
       <c r="L6" t="n">
-        <v>861.0792809845962</v>
+        <v>942.9699568457228</v>
       </c>
       <c r="M6" t="n">
         <v>1470.397510810264</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>649.6568491990137</v>
+        <v>769.7327356183514</v>
       </c>
       <c r="C7" t="n">
-        <v>480.7206662711068</v>
+        <v>600.7965526904445</v>
       </c>
       <c r="D7" t="n">
-        <v>480.7206662711068</v>
+        <v>600.7965526904445</v>
       </c>
       <c r="E7" t="n">
-        <v>332.8075726887137</v>
+        <v>452.8834591080514</v>
       </c>
       <c r="F7" t="n">
-        <v>185.9176251908033</v>
+        <v>305.9935116101411</v>
       </c>
       <c r="G7" t="n">
-        <v>185.9176251908033</v>
+        <v>305.9935116101411</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
@@ -4747,28 +4747,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1348.412641916872</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1348.412641916872</v>
+        <v>1426.858267798008</v>
       </c>
       <c r="U7" t="n">
-        <v>1059.294864927271</v>
+        <v>1426.858267798008</v>
       </c>
       <c r="V7" t="n">
-        <v>1059.294864927271</v>
+        <v>1172.173779592121</v>
       </c>
       <c r="W7" t="n">
-        <v>1059.294864927271</v>
+        <v>1172.173779592121</v>
       </c>
       <c r="X7" t="n">
-        <v>831.3053140292534</v>
+        <v>1172.173779592121</v>
       </c>
       <c r="Y7" t="n">
-        <v>831.3053140292534</v>
+        <v>951.3812004485911</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1164.039983044337</v>
+        <v>1033.100200961598</v>
       </c>
       <c r="C8" t="n">
-        <v>1164.039983044337</v>
+        <v>1033.100200961598</v>
       </c>
       <c r="D8" t="n">
-        <v>1164.039983044337</v>
+        <v>674.8345023548477</v>
       </c>
       <c r="E8" t="n">
-        <v>778.251730446093</v>
+        <v>674.8345023548477</v>
       </c>
       <c r="F8" t="n">
-        <v>771.3062296968895</v>
+        <v>667.8890016056442</v>
       </c>
       <c r="G8" t="n">
-        <v>355.6243878970215</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104791</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135514</v>
+        <v>447.8319447135523</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477392</v>
+        <v>804.6133007477401</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187504</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539973</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082063</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q8" t="n">
         <v>2568.493631507462</v>
@@ -4829,25 +4829,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T8" t="n">
-        <v>2257.170226019558</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="U8" t="n">
-        <v>2257.170226019558</v>
+        <v>2127.76817854206</v>
       </c>
       <c r="V8" t="n">
-        <v>1926.107338675987</v>
+        <v>1796.70529119849</v>
       </c>
       <c r="W8" t="n">
-        <v>1926.107338675987</v>
+        <v>1796.70529119849</v>
       </c>
       <c r="X8" t="n">
-        <v>1926.107338675987</v>
+        <v>1423.23953293741</v>
       </c>
       <c r="Y8" t="n">
-        <v>1550.639823108459</v>
+        <v>1033.100200961598</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>426.7768722128335</v>
+        <v>563.7673318682815</v>
       </c>
       <c r="L9" t="n">
-        <v>1067.800081832727</v>
+        <v>861.0792809845962</v>
       </c>
       <c r="M9" t="n">
-        <v>1434.105971325053</v>
+        <v>1227.385170476922</v>
       </c>
       <c r="N9" t="n">
-        <v>1824.515532650795</v>
+        <v>1860.807072136007</v>
       </c>
       <c r="O9" t="n">
         <v>2195.735752851538</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.2347582895954</v>
+        <v>517.8057770556592</v>
       </c>
       <c r="C10" t="n">
-        <v>179.2347582895954</v>
+        <v>517.8057770556592</v>
       </c>
       <c r="D10" t="n">
-        <v>179.2347582895954</v>
+        <v>367.6891376433235</v>
       </c>
       <c r="E10" t="n">
-        <v>51.79985532281972</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="F10" t="n">
-        <v>51.79985532281972</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="G10" t="n">
         <v>51.79985532281972</v>
@@ -4984,28 +4984,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1348.412641916872</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1125.478067458854</v>
+        <v>1424.049095695859</v>
       </c>
       <c r="U10" t="n">
-        <v>836.360290469252</v>
+        <v>1134.931318706258</v>
       </c>
       <c r="V10" t="n">
-        <v>581.6758022633652</v>
+        <v>1134.931318706258</v>
       </c>
       <c r="W10" t="n">
-        <v>581.6758022633652</v>
+        <v>927.4437927839163</v>
       </c>
       <c r="X10" t="n">
-        <v>581.6758022633652</v>
+        <v>699.4542418858989</v>
       </c>
       <c r="Y10" t="n">
-        <v>360.8832231198351</v>
+        <v>699.4542418858989</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
@@ -5027,22 +5027,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,7 +5051,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5072,19 +5072,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>724.7519863413023</v>
+        <v>768.5380889459568</v>
       </c>
       <c r="C13" t="n">
-        <v>555.8158034133954</v>
+        <v>599.6019060180499</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782941</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038328</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179773</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1644.59975125005</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="W13" t="n">
-        <v>1355.182581213089</v>
+        <v>1398.968683817744</v>
       </c>
       <c r="X13" t="n">
-        <v>1127.193030315072</v>
+        <v>1170.979132919727</v>
       </c>
       <c r="Y13" t="n">
-        <v>906.400451171542</v>
+        <v>950.1865537761965</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5364,13 +5364,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>762.5477693179085</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C16" t="n">
-        <v>593.6115863900017</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D16" t="n">
-        <v>593.6115863900017</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E16" t="n">
-        <v>445.6984928076085</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
         <v>175.9033664000583</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="17">
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,19 +5592,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>120.680066384834</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>454.6048385560546</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
         <v>2129.438138565707</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>870.3164745246296</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C19" t="n">
-        <v>701.3802915967227</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D19" t="n">
-        <v>551.263652184387</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2349.204753900789</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2129.60328892373</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1840.528062267928</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1585.843574062041</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.747069396417</v>
+        <v>1296.426404025081</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.757518498399</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.964939354869</v>
+        <v>847.644273983533</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5738,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5835,22 +5835,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6312,19 +6312,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6449,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6540,28 +6540,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6601,13 +6601,13 @@
         <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6680,10 +6680,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6871,7 +6871,7 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
         <v>2496.057455973196</v>
@@ -6880,16 +6880,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6898,7 +6898,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7254,25 +7254,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,31 +7330,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954154</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380733</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656415</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7491,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7600,16 +7600,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D46" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,7 +7819,7 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
         <v>2496.057455973196</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -7976,19 +7976,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>108.4711649417398</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>407.4751802037414</v>
       </c>
       <c r="M2" t="n">
-        <v>343.1531561769491</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>338.9374781659683</v>
+        <v>338.9374781659704</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -7997,10 +7997,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159724</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>374.8512253714677</v>
+        <v>248.7601900310702</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8295,13 +8295,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>347.1830914177569</v>
       </c>
       <c r="M6" t="n">
-        <v>245.4670104377199</v>
+        <v>162.7491560325415</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8529,22 +8529,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>347.1830914177568</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>245.4670104377199</v>
       </c>
       <c r="O9" t="n">
-        <v>36.65812069213297</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9407,10 +9407,10 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9641,10 +9641,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.870175259510972</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885203</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,19 +22601,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>7.038546328250712</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>318.582919481896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22708,22 +22708,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,25 +22753,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>97.30975824035653</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489332</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>27.76311574357362</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>43.84801117172532</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>92.12028678808279</v>
       </c>
     </row>
     <row r="17">
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>4.506629716718379</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>84.24553961896741</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>110.0033420516649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,10 +24421,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>45.04089287986324</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>191.2691783702305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1094631.103032126</v>
+        <v>1094631.103032127</v>
       </c>
     </row>
     <row r="3">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99467.00901045137</v>
+        <v>99467.00901045144</v>
       </c>
       <c r="C2" t="n">
         <v>123156.2654796425</v>
@@ -26347,7 +26347,7 @@
         <v>123156.2654796425</v>
       </c>
       <c r="N2" t="n">
-        <v>123156.2654796426</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="O2" t="n">
         <v>123156.2654796425</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753986</v>
+        <v>939682.9358753958</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898923</v>
+        <v>172764.3597898951</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457508</v>
+        <v>500888.8677457509</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.016826048</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.7179936318</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69645.52123312783</v>
+        <v>69645.52123312835</v>
       </c>
       <c r="C4" t="n">
         <v>129066.754725248</v>
@@ -26424,28 +26424,28 @@
         <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695062</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695062</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695062</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695079</v>
+        <v>6287.480531695061</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695061</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695083</v>
+        <v>6287.48053169506</v>
       </c>
       <c r="K4" t="n">
         <v>14278.33979478852</v>
       </c>
       <c r="L4" t="n">
-        <v>14278.33979478852</v>
+        <v>14278.33979478855</v>
       </c>
       <c r="M4" t="n">
         <v>14278.33979478851</v>
@@ -26457,7 +26457,7 @@
         <v>14278.33979478852</v>
       </c>
       <c r="P4" t="n">
-        <v>14278.33979478852</v>
+        <v>14278.33979478853</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.0748969909</v>
+        <v>89345.07489699085</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-999206.5229950659</v>
+        <v>-999601.3439362168</v>
       </c>
       <c r="C6" t="n">
-        <v>-272155.9383970074</v>
+        <v>-272155.9383970102</v>
       </c>
       <c r="D6" t="n">
-        <v>-99391.57860711509</v>
+        <v>-99391.57860711508</v>
       </c>
       <c r="E6" t="n">
-        <v>-487226.888147852</v>
+        <v>-487261.6260732879</v>
       </c>
       <c r="F6" t="n">
-        <v>13661.97959789872</v>
+        <v>13627.24167246309</v>
       </c>
       <c r="G6" t="n">
-        <v>13661.97959789872</v>
+        <v>13627.24167246306</v>
       </c>
       <c r="H6" t="n">
-        <v>13661.97959789869</v>
+        <v>13627.24167246305</v>
       </c>
       <c r="I6" t="n">
-        <v>13661.97959789872</v>
+        <v>13627.24167246305</v>
       </c>
       <c r="J6" t="n">
-        <v>-155752.0372281493</v>
+        <v>-155786.7751535851</v>
       </c>
       <c r="K6" t="n">
         <v>-13713.90816269332</v>
       </c>
       <c r="L6" t="n">
-        <v>5713.809830938539</v>
+        <v>5713.809830938597</v>
       </c>
       <c r="M6" t="n">
         <v>-125170.6470732966</v>
       </c>
       <c r="N6" t="n">
-        <v>5713.809830938626</v>
+        <v>5713.809830938582</v>
       </c>
       <c r="O6" t="n">
-        <v>5713.809830938597</v>
+        <v>5713.809830938582</v>
       </c>
       <c r="P6" t="n">
-        <v>-13713.90816269314</v>
+        <v>-13713.90816269323</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
         <v>939.7063906498445</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522337</v>
+        <v>189.7254341522367</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918293</v>
+        <v>428.2691096918295</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>244.0659066739785</v>
       </c>
       <c r="V2" t="n">
-        <v>61.79065382962119</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.48346005197</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>125.2826520358082</v>
       </c>
     </row>
     <row r="5">
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>101.9305679575699</v>
+        <v>201.710072490302</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27789,10 +27789,10 @@
         <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>14.38446804214323</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>2.781080381127424</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>167.2186212580125</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.52509824420122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,16 +28014,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>20.27340870946129</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>81.11034767347311</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090895</v>
+        <v>3.014998820090883</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625589</v>
+        <v>30.87735666625576</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115544</v>
+        <v>116.2357420115539</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066899</v>
+        <v>255.8942561066888</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611376</v>
+        <v>383.519156161136</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014944</v>
+        <v>475.7894263014924</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682859</v>
+        <v>529.4074115682837</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658691</v>
+        <v>537.9737769658669</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485902</v>
+        <v>507.9933824485882</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775962</v>
+        <v>433.5605990775944</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330909</v>
+        <v>325.5859538330896</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325349</v>
+        <v>189.3909196325341</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282135</v>
+        <v>68.70428561282107</v>
       </c>
       <c r="T2" t="n">
-        <v>13.1981573349479</v>
+        <v>13.19815733494785</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072716</v>
+        <v>0.2411999056072706</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674106</v>
+        <v>1.6131665856741</v>
       </c>
       <c r="H3" t="n">
-        <v>15.5797930774315</v>
+        <v>15.57979307743144</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307779</v>
+        <v>55.54104253307757</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859909</v>
+        <v>152.4088658859903</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126156</v>
+        <v>260.491027126155</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605116</v>
+        <v>350.2623325605101</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911979</v>
+        <v>408.7396212911962</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240738</v>
+        <v>419.5577428240721</v>
       </c>
       <c r="O3" t="n">
-        <v>383.813367425716</v>
+        <v>383.8133674257144</v>
       </c>
       <c r="P3" t="n">
-        <v>308.04406494333</v>
+        <v>308.0440649433287</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028912</v>
+        <v>205.9192996028904</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526432</v>
+        <v>100.1578341526428</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969226</v>
+        <v>29.96386179969214</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993435</v>
+        <v>6.502193386993408</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364544</v>
+        <v>0.106129380636454</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651429</v>
+        <v>1.352424675651424</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351908</v>
+        <v>12.02428484351903</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777208</v>
+        <v>40.67109842777192</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855604</v>
+        <v>95.61642456855564</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711387</v>
+        <v>157.1271577711381</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600316</v>
+        <v>201.0686649600308</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932508</v>
+        <v>211.9987152932499</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840047</v>
+        <v>206.9578596840039</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184402</v>
+        <v>191.1590805184395</v>
       </c>
       <c r="P4" t="n">
-        <v>163.569617135151</v>
+        <v>163.5696171351503</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311392</v>
+        <v>113.2471244311388</v>
       </c>
       <c r="R4" t="n">
-        <v>60.8099313251997</v>
+        <v>60.80993132519945</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567081</v>
+        <v>23.56907366567071</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965196</v>
+        <v>5.778541795965173</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189623</v>
+        <v>0.07376861867189592</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,31 +31829,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>558.375963895806</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31862,16 +31862,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32084,16 +32084,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>208.6096528357818</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>369.1789913099997</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>153.972377511982</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>575.5951359912044</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32555,25 +32555,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,19 +32795,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>403.8524967138027</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33184,7 +33184,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33260,31 +33260,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,25 +33740,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33974,28 +33974,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>704.1404939038099</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34135,7 +34135,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34211,25 +34211,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>618.3341264639751</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>469.5567819573411</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000359</v>
+        <v>183.3195165217424</v>
       </c>
       <c r="K2" t="n">
-        <v>163.429305116157</v>
+        <v>163.4293051161554</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315071</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="M2" t="n">
-        <v>642.2143345179622</v>
+        <v>299.061178341011</v>
       </c>
       <c r="N2" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269035</v>
+        <v>277.8951710269015</v>
       </c>
       <c r="P2" t="n">
-        <v>202.3276033223266</v>
+        <v>202.3276033223249</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185461</v>
+        <v>103.2802639586401</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.52180169138441</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932421</v>
+        <v>151.6622745597324</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643756</v>
+        <v>387.1148251643746</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806374</v>
+        <v>211.7079527806359</v>
       </c>
       <c r="M3" t="n">
-        <v>641.4568127406473</v>
+        <v>515.365777400248</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407405</v>
+        <v>288.2160307407388</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812715</v>
+        <v>241.2171229812699</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689369</v>
+        <v>492.5324261689357</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527188</v>
+        <v>276.0148132527179</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883267</v>
+        <v>2.257244451882869</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452559</v>
+        <v>134.8576659452552</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203478</v>
+        <v>228.6586902203469</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550914</v>
+        <v>251.5825922550905</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632333</v>
+        <v>251.0900320632325</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324799</v>
+        <v>215.7442084324792</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000445</v>
+        <v>160.8481764000438</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944484</v>
+        <v>27.08508117944437</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915742</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K5" t="n">
         <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153408</v>
+        <v>360.3852081153415</v>
       </c>
       <c r="M5" t="n">
         <v>432.9873135755192</v>
@@ -35015,13 +35015,13 @@
         <v>64.12666919171352</v>
       </c>
       <c r="K6" t="n">
-        <v>453.0121960057227</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="M6" t="n">
-        <v>615.4729594198668</v>
+        <v>532.7551050146884</v>
       </c>
       <c r="N6" t="n">
         <v>394.3530922482246</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931441</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L9" t="n">
-        <v>647.4981915352464</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
         <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482246</v>
+        <v>639.8201026859444</v>
       </c>
       <c r="O9" t="n">
-        <v>374.9699193946896</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
         <v>251.9966948131503</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,25 +35483,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>416.2419299737876</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295172</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35647,7 +35647,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
@@ -35732,16 +35732,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>66.47561891376348</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>27.13475084531533</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>433.4611020691861</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36127,10 +36127,10 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,10 +36361,10 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,19 +36443,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>272.5107846304694</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36908,31 +36908,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>103.6778299969399</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37622,28 +37622,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>572.7987818204766</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37859,25 +37859,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>476.2000925419567</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>327.4227480353227</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
